--- a/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample12/Sample-12.xlsx
+++ b/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample12/Sample-12.xlsx
@@ -177,14 +177,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="igswwqeg" xfId="1"/>
-    <cellStyle name="igswwqeg_Alternate" xfId="2"/>
-    <cellStyle name="nda4u5ed" xfId="3"/>
-    <cellStyle name="nda4u5ed_Alternate" xfId="4"/>
-    <cellStyle name="ac3fgjxm" xfId="5"/>
-    <cellStyle name="ac3fgjxm_Alternate" xfId="6"/>
-    <cellStyle name="mky4zw1u" xfId="7"/>
-    <cellStyle name="mky4zw1u_Alternate" xfId="8"/>
+    <cellStyle name="meuvty5o" xfId="1"/>
+    <cellStyle name="meuvty5o_Alternate" xfId="2"/>
+    <cellStyle name="ak3kolho" xfId="3"/>
+    <cellStyle name="ak3kolho_Alternate" xfId="4"/>
+    <cellStyle name="n4d22oc4" xfId="5"/>
+    <cellStyle name="n4d22oc4_Alternate" xfId="6"/>
+    <cellStyle name="gjszxzrl" xfId="7"/>
+    <cellStyle name="gjszxzrl_Alternate" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample12/Sample-12.xlsx
+++ b/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample12/Sample-12.xlsx
@@ -177,14 +177,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="meuvty5o" xfId="1"/>
-    <cellStyle name="meuvty5o_Alternate" xfId="2"/>
-    <cellStyle name="ak3kolho" xfId="3"/>
-    <cellStyle name="ak3kolho_Alternate" xfId="4"/>
-    <cellStyle name="n4d22oc4" xfId="5"/>
-    <cellStyle name="n4d22oc4_Alternate" xfId="6"/>
-    <cellStyle name="gjszxzrl" xfId="7"/>
-    <cellStyle name="gjszxzrl_Alternate" xfId="8"/>
+    <cellStyle name="qjxn1jub" xfId="1"/>
+    <cellStyle name="qjxn1jub_Alternate" xfId="2"/>
+    <cellStyle name="2syx3g4i" xfId="3"/>
+    <cellStyle name="2syx3g4i_Alternate" xfId="4"/>
+    <cellStyle name="3j3j3br5" xfId="5"/>
+    <cellStyle name="3j3j3br5_Alternate" xfId="6"/>
+    <cellStyle name="u1wjvy0s" xfId="7"/>
+    <cellStyle name="u1wjvy0s_Alternate" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
